--- a/assets/ranking_anual.xlsx
+++ b/assets/ranking_anual.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3c01a02ebe30ce28/Marco's PC/Trivia 2025/Material de apoio/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3c01a02ebe30ce28/Marco's PC/Trivia 2025/Material de apoio/site_lestriveiros/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="13_ncr:1_{A2EC6465-C114-4273-9D63-E995A86EF162}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3FA24C41-0F54-408D-A9E0-917131AFEE8F}"/>
+  <xr:revisionPtr revIDLastSave="42" documentId="13_ncr:1_{A2EC6465-C114-4273-9D63-E995A86EF162}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{67732467-52B8-4BF8-A351-EE29C369C49E}"/>
   <bookViews>
-    <workbookView xWindow="21615" yWindow="1125" windowWidth="25035" windowHeight="12105" xr2:uid="{17B7C58C-9BD1-4121-BFEB-3B3EBBA28367}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{17B7C58C-9BD1-4121-BFEB-3B3EBBA28367}"/>
   </bookViews>
   <sheets>
     <sheet name="Classificação anual" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Equipe</t>
   </si>
@@ -114,6 +114,12 @@
   </si>
   <si>
     <t>Pais de Planta</t>
+  </si>
+  <si>
+    <t>TRIVIA 10 - Memento</t>
+  </si>
+  <si>
+    <t>Enciclopédia do Zap</t>
   </si>
 </sst>
 </file>
@@ -597,13 +603,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B3BC04E-F502-4E56-9414-B45D69CA26FB}">
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K11" sqref="K11"/>
+      <selection pane="bottomRight" activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -618,10 +624,11 @@
     <col min="9" max="9" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="18.5703125" customWidth="1"/>
     <col min="11" max="11" width="17" customWidth="1"/>
-    <col min="12" max="23" width="8.7109375" customWidth="1"/>
+    <col min="12" max="12" width="16.5703125" customWidth="1"/>
+    <col min="13" max="23" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="72" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -655,14 +662,17 @@
       <c r="K1" s="6" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L1" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="5">
-        <f>SUM(C2:K2)</f>
-        <v>90</v>
+        <f>SUM(C2:L2)</f>
+        <v>100</v>
       </c>
       <c r="C2" s="2">
         <v>0</v>
@@ -691,14 +701,17 @@
       <c r="K2" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L2" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="5">
-        <f t="shared" ref="B3:B15" si="0">SUM(C3:K3)</f>
-        <v>49</v>
+        <f>SUM(C3:L3)</f>
+        <v>64</v>
       </c>
       <c r="C3" s="2">
         <v>3</v>
@@ -727,13 +740,16 @@
       <c r="K3" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L3" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="B3:B16" si="0">SUM(C4:L4)</f>
         <v>44</v>
       </c>
       <c r="C4" s="2">
@@ -763,14 +779,17 @@
       <c r="K4" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="5">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C5" s="2">
         <v>2</v>
@@ -799,14 +818,17 @@
       <c r="K5" s="2">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L5" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="5">
         <f t="shared" si="0"/>
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="C6" s="2">
         <v>0</v>
@@ -835,8 +857,11 @@
       <c r="K6" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L6" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
@@ -871,14 +896,17 @@
       <c r="K7" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="5">
         <f t="shared" si="0"/>
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C8" s="2">
         <v>1</v>
@@ -907,8 +935,11 @@
       <c r="K8" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>10</v>
       </c>
@@ -943,14 +974,17 @@
       <c r="K9" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="5">
-        <f t="shared" si="0"/>
-        <v>9</v>
+        <f>SUM(C10:L10)</f>
+        <v>14</v>
       </c>
       <c r="C10" s="2">
         <v>0</v>
@@ -979,8 +1013,11 @@
       <c r="K10" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L10" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>13</v>
       </c>
@@ -1015,8 +1052,11 @@
       <c r="K11" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L11" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
@@ -1051,8 +1091,11 @@
       <c r="K12" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L12" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>9</v>
       </c>
@@ -1087,14 +1130,17 @@
       <c r="K13" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L13" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B14" s="5">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C14" s="2">
         <v>0</v>
@@ -1123,14 +1169,17 @@
       <c r="K14" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L14" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B15" s="5">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C15" s="2">
         <v>0</v>
@@ -1158,6 +1207,48 @@
       </c>
       <c r="K15" s="2">
         <v>3</v>
+      </c>
+      <c r="L15" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0</v>
+      </c>
+      <c r="H16" s="2">
+        <v>0</v>
+      </c>
+      <c r="I16" s="2">
+        <v>0</v>
+      </c>
+      <c r="J16" s="2">
+        <v>0</v>
+      </c>
+      <c r="K16" s="2">
+        <v>0</v>
+      </c>
+      <c r="L16" s="2">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
